--- a/Model_setup/NEISO_data_file/solar_caps.xlsx
+++ b/Model_setup/NEISO_data_file/solar_caps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,6 +49,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -78,8 +81,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,15 +368,15 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -397,30 +402,30 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>0.125</v>
-      </c>
-      <c r="B2">
-        <v>0.125</v>
-      </c>
-      <c r="C2">
-        <v>0.125</v>
-      </c>
-      <c r="D2">
-        <v>0.125</v>
-      </c>
-      <c r="E2">
-        <v>0.125</v>
-      </c>
-      <c r="F2">
-        <v>0.125</v>
-      </c>
-      <c r="G2">
-        <v>0.125</v>
-      </c>
-      <c r="H2">
-        <v>0.125</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>9.0526758490169279E-2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5.8879192513931243E-3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.14141520344863842</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3.3224687204289775E-2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.27883503311954583</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.10387971822100728</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.34623068026495635</v>
       </c>
     </row>
   </sheetData>
